--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,9 +322,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:type</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -1213,24 +1213,24 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>20</v>
@@ -1255,10 +1255,10 @@
         <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1318,7 +1318,7 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1432,10 +1432,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1464,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>82</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1561,16 +1561,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>20</v>
@@ -1620,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>84</v>
@@ -1635,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1730,13 +1730,13 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1835,7 +1835,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1952,7 +1952,7 @@
         <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1981,7 +1981,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2041,7 +2041,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>82</v>
@@ -2055,7 +2055,7 @@
         <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2078,16 +2078,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2137,7 +2137,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -2152,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -2249,21 +2249,21 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2286,16 +2286,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2345,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>84</v>
@@ -2360,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -2457,13 +2457,13 @@
         <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
+++ b/main/ig/StructureDefinition-FrDrugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
